--- a/registros_neo.xlsx
+++ b/registros_neo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -30,12 +30,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>UL207</t>
-  </si>
-  <si>
     <t>Arc(opps)</t>
   </si>
   <si>
@@ -45,9 +39,6 @@
     <t>Magnitud (H)</t>
   </si>
   <si>
-    <t>DP97</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -57,96 +48,42 @@
     <t>Anonymus</t>
   </si>
   <si>
-    <t>RN30</t>
-  </si>
-  <si>
-    <t>WV66</t>
-  </si>
-  <si>
-    <t>UK41</t>
-  </si>
-  <si>
-    <t>TP5</t>
-  </si>
-  <si>
-    <t>TC38</t>
-  </si>
-  <si>
-    <t>PD197</t>
-  </si>
-  <si>
-    <t>RO283</t>
-  </si>
-  <si>
-    <t>UC94</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
     <t>CMP</t>
   </si>
   <si>
-    <t>GF84</t>
-  </si>
-  <si>
     <t>MP_Aten</t>
   </si>
   <si>
     <t>Catalina Sky Survey</t>
   </si>
   <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>G96</t>
-  </si>
-  <si>
     <t>Mt.Lemmon Survey</t>
   </si>
   <si>
-    <t>F51</t>
-  </si>
-  <si>
     <t>Pan-Starrs</t>
   </si>
   <si>
-    <t>GU79</t>
-  </si>
-  <si>
     <t>Spacewatch</t>
   </si>
   <si>
-    <t>JF22</t>
-  </si>
-  <si>
     <t>Linear</t>
   </si>
   <si>
-    <t>E06</t>
-  </si>
-  <si>
     <t>MP_Apollo</t>
   </si>
   <si>
     <t xml:space="preserve">Pan-Starrs </t>
   </si>
   <si>
-    <t>FK1</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
     <t>Siding spring Survey</t>
   </si>
   <si>
     <t>MP_Amor</t>
   </si>
   <si>
-    <t>CY4</t>
-  </si>
-  <si>
     <t>Siding Spring Survey</t>
   </si>
   <si>
@@ -177,37 +114,10 @@
     <t>La Sagra</t>
   </si>
   <si>
-    <t xml:space="preserve">C/1995 O1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">P/1996 R2 </t>
-  </si>
-  <si>
-    <t>P/1997 T3</t>
-  </si>
-  <si>
-    <t>P/1998 U3</t>
-  </si>
-  <si>
-    <t>P/1998 VS24</t>
-  </si>
-  <si>
     <t>Lemmon</t>
   </si>
   <si>
-    <t>P/2008 CL94</t>
-  </si>
-  <si>
-    <t>C/2008 S3</t>
-  </si>
-  <si>
-    <t>P/2010 A2</t>
-  </si>
-  <si>
-    <t>P/2010 R2</t>
-  </si>
-  <si>
-    <t>P/2010 WK</t>
+    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -215,8 +125,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -273,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -285,13 +195,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -600,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +521,8 @@
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -619,42 +530,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>17.600000000000001</v>
@@ -672,21 +583,21 @@
         <v>40544</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>17.3</v>
@@ -704,21 +615,21 @@
         <v>39814</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>18</v>
@@ -736,21 +647,21 @@
         <v>38718</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
+      <c r="A5" s="1">
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>15.8</v>
@@ -768,21 +679,21 @@
         <v>36526</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
+      <c r="A6" s="1">
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>17.3</v>
@@ -800,21 +711,21 @@
         <v>39448</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
+      <c r="A7" s="1">
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>16.7</v>
@@ -832,21 +743,21 @@
         <v>33970</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
+      <c r="A8" s="1">
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>17.600000000000001</v>
@@ -864,21 +775,21 @@
         <v>39083</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
+      <c r="A9" s="1">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>17.3</v>
@@ -896,21 +807,21 @@
         <v>37257</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
+      <c r="A10" s="1">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>17.399999999999999</v>
@@ -928,21 +839,21 @@
         <v>37987</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>16.100000000000001</v>
@@ -960,30 +871,30 @@
         <v>40179</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
         <v>25.2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
         <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G12" s="1">
         <v>0.32300000000000001</v>
@@ -991,31 +902,31 @@
       <c r="H12" s="2">
         <v>41375</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>25</v>
+      <c r="I12" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
+      <c r="A13" s="1">
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
         <v>23.7</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
         <v>6</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G13" s="1">
         <v>0.32100000000000001</v>
@@ -1023,31 +934,31 @@
       <c r="H13" s="2">
         <v>41371</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
+      <c r="I13" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1">
         <v>25.7</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1">
         <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G14" s="1">
         <v>0.24099999999999999</v>
@@ -1055,31 +966,31 @@
       <c r="H14" s="2">
         <v>41352</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
+      <c r="I14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="1">
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1">
         <v>22.9</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
         <v>31</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G15" s="1">
         <v>0.40300000000000002</v>
@@ -1087,31 +998,31 @@
       <c r="H15" s="2">
         <v>41351</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>32</v>
+      <c r="I15" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
+      <c r="A16" s="1">
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1">
         <v>23.9</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
         <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G16" s="1">
         <v>0.81799999999999995</v>
@@ -1119,31 +1030,31 @@
       <c r="H16" s="2">
         <v>41232</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>34</v>
+      <c r="I16" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
+      <c r="A17" s="1">
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
         <v>25.5</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
         <v>27</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G17" s="1">
         <v>0.14499999999999999</v>
@@ -1151,31 +1062,31 @@
       <c r="H17" s="2">
         <v>41230</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>28</v>
+      <c r="I17" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1">
         <v>25.6</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1">
         <v>2</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G18" s="1">
         <v>0.254</v>
@@ -1183,31 +1094,31 @@
       <c r="H18" s="2">
         <v>41218</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>30</v>
+      <c r="I18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="1">
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
         <v>24.5</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
         <v>25</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G19" s="1">
         <v>0.222</v>
@@ -1215,31 +1126,31 @@
       <c r="H19" s="2">
         <v>41207</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>34</v>
+      <c r="I19" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
+      <c r="A20" s="1">
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1">
         <v>25</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1">
         <v>6</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G20" s="1">
         <v>0.32600000000000001</v>
@@ -1247,31 +1158,31 @@
       <c r="H20" s="2">
         <v>41198</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>28</v>
+      <c r="I20" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
+      <c r="A21" s="1">
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1">
         <v>24.1</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1">
         <v>2</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G21" s="1">
         <v>0.109</v>
@@ -1279,31 +1190,31 @@
       <c r="H21" s="2">
         <v>41083</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>25</v>
+      <c r="I21" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
+      <c r="A22" s="1">
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1">
         <v>23.7</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1">
         <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G22" s="1">
         <v>0.67800000000000005</v>
@@ -1311,31 +1222,31 @@
       <c r="H22" s="2">
         <v>41380</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>37</v>
+      <c r="I22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
+      <c r="A23" s="1">
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1">
         <v>22</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1">
         <v>2</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G23" s="1">
         <v>0.67700000000000005</v>
@@ -1343,31 +1254,31 @@
       <c r="H23" s="2">
         <v>41380</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>25</v>
+      <c r="I23" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
+      <c r="A24" s="1">
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1">
         <v>26</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
         <v>2</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G24" s="1">
         <v>3.2000000000000001E-2</v>
@@ -1375,31 +1286,31 @@
       <c r="H24" s="2">
         <v>41321</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>25</v>
+      <c r="I24" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
+      <c r="A25" s="1">
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1">
         <v>23.8</v>
       </c>
-      <c r="E25" s="1">
-        <v>7</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>26</v>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7</v>
       </c>
       <c r="G25" s="1">
         <v>0.42799999999999999</v>
@@ -1407,31 +1318,31 @@
       <c r="H25" s="2">
         <v>41376</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>40</v>
+      <c r="I25" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
+      <c r="A26" s="1">
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1">
         <v>19.5</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1">
         <v>8</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G26" s="1">
         <v>0.499</v>
@@ -1439,31 +1350,31 @@
       <c r="H26" s="2">
         <v>41374</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>37</v>
+      <c r="I26" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
+      <c r="A27" s="1">
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1">
         <v>9</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G27" s="1">
         <v>0.86799999999999999</v>
@@ -1471,31 +1382,31 @@
       <c r="H27" s="2">
         <v>41375</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>32</v>
+      <c r="I27" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1">
         <v>24.4</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
         <v>21</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G28" s="1">
         <v>0.42099999999999999</v>
@@ -1503,31 +1414,31 @@
       <c r="H28" s="2">
         <v>41296</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1">
         <v>21.3</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
         <v>47</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G29" s="1">
         <v>0.308</v>
@@ -1535,31 +1446,31 @@
       <c r="H29" s="2">
         <v>41597</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>40</v>
+      <c r="I29" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>27</v>
+      <c r="A30" s="1">
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1">
         <v>25.2</v>
       </c>
-      <c r="E30" s="1">
-        <v>7</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>26</v>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7</v>
       </c>
       <c r="G30" s="1">
         <v>0.432</v>
@@ -1567,31 +1478,31 @@
       <c r="H30" s="2">
         <v>41230</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>28</v>
+      <c r="I30" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
+      <c r="A31" s="1">
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1">
         <v>26</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1">
         <v>23</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G31" s="1">
         <v>0.27900000000000003</v>
@@ -1599,31 +1510,31 @@
       <c r="H31" s="2">
         <v>41233</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>25</v>
+      <c r="I31" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>23</v>
+      <c r="A32" s="1">
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1">
         <v>24.9</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1">
         <v>4</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G32" s="1">
         <v>0.126</v>
@@ -1631,31 +1542,31 @@
       <c r="H32" s="2">
         <v>41376</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>25</v>
+      <c r="I32" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
+      <c r="A33" s="1">
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1">
         <v>21.3</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1">
         <v>5</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G33" s="1">
         <v>0.40200000000000002</v>
@@ -1663,31 +1574,31 @@
       <c r="H33" s="2">
         <v>41318</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>32</v>
+      <c r="I33" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>27</v>
+      <c r="A34" s="1">
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1">
         <v>23.1</v>
       </c>
-      <c r="E34" s="1">
-        <v>7</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>26</v>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1">
+        <v>7</v>
       </c>
       <c r="G34" s="1">
         <v>0.51200000000000001</v>
@@ -1695,31 +1606,31 @@
       <c r="H34" s="2">
         <v>41316</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>28</v>
+      <c r="I34" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
+      <c r="A35" s="1">
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1">
         <v>21.1</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1">
         <v>10</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G35" s="1">
         <v>0.53800000000000003</v>
@@ -1727,31 +1638,31 @@
       <c r="H35" s="2">
         <v>41373</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>30</v>
+      <c r="I35" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>27</v>
+      <c r="A36" s="1">
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1">
         <v>22.3</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1">
         <v>4</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G36" s="1">
         <v>0.313</v>
@@ -1759,31 +1670,31 @@
       <c r="H36" s="2">
         <v>41351</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>28</v>
+      <c r="I36" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
+      <c r="A37" s="1">
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1">
         <v>2</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G37" s="1">
         <v>0.32200000000000001</v>
@@ -1791,31 +1702,31 @@
       <c r="H37" s="2">
         <v>39487</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>34</v>
+      <c r="I37" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
+      <c r="A38" s="1">
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D38" s="1">
         <v>22.2</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1">
         <v>2</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G38" s="1">
         <v>0.32200000000000001</v>
@@ -1823,31 +1734,31 @@
       <c r="H38" s="2">
         <v>39487</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>25</v>
+      <c r="I38" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>27</v>
+      <c r="A39" s="1">
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1">
         <v>22.8</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1">
         <v>29</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G39" s="1">
         <v>0.55900000000000005</v>
@@ -1855,31 +1766,31 @@
       <c r="H39" s="2">
         <v>39480</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>28</v>
+      <c r="I39" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D40" s="1">
         <v>18.100000000000001</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1">
         <v>3</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G40" s="1">
         <v>0.76300000000000001</v>
@@ -1887,31 +1798,31 @@
       <c r="H40" s="2">
         <v>39242</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>43</v>
+      <c r="I40" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
+      <c r="A41" s="1">
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D41" s="1">
         <v>20</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1">
         <v>32</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G41" s="1">
         <v>0.53400000000000003</v>
@@ -1919,331 +1830,331 @@
       <c r="H41" s="2">
         <v>39160</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>25</v>
+      <c r="I41" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>53</v>
+      <c r="A42" s="1">
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D42" s="4">
         <v>23.4</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H42" s="6">
         <v>40516</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>10</v>
+      <c r="I42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>54</v>
+      <c r="A43" s="1">
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H43" s="6">
         <v>35442</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>10</v>
+      <c r="I43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>55</v>
+      <c r="A44" s="1">
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D44" s="4">
         <v>19.399999999999999</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H44" s="6">
         <v>36204</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>10</v>
+      <c r="I44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>56</v>
+      <c r="A45" s="1">
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H45" s="6">
         <v>36291</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>10</v>
+      <c r="I45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>57</v>
+      <c r="A46" s="1">
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D46" s="4">
         <v>19.100000000000001</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H46" s="6">
         <v>36174</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>10</v>
+      <c r="I46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>59</v>
+      <c r="A47" s="1">
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D47" s="4">
         <v>19.600000000000001</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>60</v>
+      <c r="A48" s="1">
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D48" s="4">
         <v>17.100000000000001</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H48" s="7">
         <v>41287</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>10</v>
+      <c r="I48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>61</v>
+      <c r="A49" s="1">
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D49" s="4">
         <v>19.8</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H49" s="6">
         <v>40285</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="B50" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D50" s="4">
         <v>23.6</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H50" s="6">
         <v>40784</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>10</v>
+      <c r="I50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>63</v>
+      <c r="A51" s="1">
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D51" s="8">
         <v>19</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H51" s="6">
         <v>40654</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>10</v>
+      <c r="I51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/registros_neo.xlsx
+++ b/registros_neo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>CMP</t>
   </si>
   <si>
-    <t>MP_Aten</t>
-  </si>
-  <si>
     <t>Catalina Sky Survey</t>
   </si>
   <si>
@@ -118,6 +115,12 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>MP_Atens</t>
+  </si>
+  <si>
+    <t>MP_Amors</t>
   </si>
 </sst>
 </file>
@@ -510,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>8</v>
@@ -882,10 +885,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D12" s="1">
         <v>25.2</v>
@@ -906,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -914,10 +917,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
         <v>23.7</v>
@@ -938,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -946,10 +949,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
         <v>25.7</v>
@@ -970,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -978,10 +981,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
         <v>22.9</v>
@@ -1002,7 +1005,7 @@
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1010,10 +1013,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
         <v>23.9</v>
@@ -1034,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1042,10 +1045,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1">
         <v>25.5</v>
@@ -1066,7 +1069,7 @@
         <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1074,10 +1077,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1">
         <v>25.6</v>
@@ -1098,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1106,10 +1109,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
         <v>24.5</v>
@@ -1130,7 +1133,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1138,10 +1141,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1">
         <v>25</v>
@@ -1162,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1170,10 +1173,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D21" s="1">
         <v>24.1</v>
@@ -1194,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1202,10 +1205,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D22" s="1">
         <v>23.7</v>
@@ -1226,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,10 +1237,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1">
         <v>22</v>
@@ -1258,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1266,10 +1269,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1">
         <v>26</v>
@@ -1290,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1298,10 +1301,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1">
         <v>23.8</v>
@@ -1322,7 +1325,7 @@
         <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1330,10 +1333,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D26" s="1">
         <v>19.5</v>
@@ -1354,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1362,10 +1365,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1">
         <v>18.899999999999999</v>
@@ -1386,7 +1389,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1394,10 +1397,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1">
         <v>24.4</v>
@@ -1418,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1426,10 +1429,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1">
         <v>21.3</v>
@@ -1450,7 +1453,7 @@
         <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1458,10 +1461,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1">
         <v>25.2</v>
@@ -1482,7 +1485,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1490,10 +1493,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1">
         <v>26</v>
@@ -1514,7 +1517,7 @@
         <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1522,10 +1525,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1">
         <v>24.9</v>
@@ -1546,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1554,10 +1557,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1">
         <v>21.3</v>
@@ -1578,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1586,10 +1589,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1">
         <v>23.1</v>
@@ -1610,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1618,10 +1621,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1">
         <v>21.1</v>
@@ -1642,7 +1645,7 @@
         <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1650,10 +1653,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1">
         <v>22.3</v>
@@ -1674,7 +1677,7 @@
         <v>7</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1682,10 +1685,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1">
         <v>19.600000000000001</v>
@@ -1706,7 +1709,7 @@
         <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1714,10 +1717,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1">
         <v>22.2</v>
@@ -1738,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1746,10 +1749,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1">
         <v>22.8</v>
@@ -1770,7 +1773,7 @@
         <v>7</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1778,10 +1781,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D40" s="1">
         <v>18.100000000000001</v>
@@ -1802,7 +1805,7 @@
         <v>7</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1810,10 +1813,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1">
         <v>20</v>
@@ -1834,7 +1837,7 @@
         <v>7</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1842,10 +1845,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="D42" s="4">
         <v>23.4</v>
@@ -1866,7 +1869,7 @@
         <v>7</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1874,10 +1877,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>7</v>
@@ -1898,7 +1901,7 @@
         <v>7</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1906,10 +1909,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" s="4">
         <v>19.399999999999999</v>
@@ -1930,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1938,10 +1941,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>7</v>
@@ -1962,7 +1965,7 @@
         <v>7</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1970,10 +1973,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="4">
         <v>19.100000000000001</v>
@@ -1994,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2002,10 +2005,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="4">
         <v>19.600000000000001</v>
@@ -2020,13 +2023,13 @@
         <v>7</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2034,10 +2037,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="4">
         <v>17.100000000000001</v>
@@ -2058,7 +2061,7 @@
         <v>7</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2066,10 +2069,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="4">
         <v>19.8</v>
@@ -2090,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2098,10 +2101,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="4">
         <v>23.6</v>
@@ -2122,7 +2125,7 @@
         <v>7</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2130,10 +2133,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="8">
         <v>19</v>
@@ -2154,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/registros_neo.xlsx
+++ b/registros_neo.xlsx
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
